--- a/Code/Results/Cases/Case_0_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_85/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.001840490115116</v>
+        <v>0.01114771857106678</v>
       </c>
       <c r="D2">
-        <v>0.08889115143233539</v>
+        <v>0.111850647797489</v>
       </c>
       <c r="E2">
-        <v>0.04076954620570028</v>
+        <v>0.09511822491632671</v>
       </c>
       <c r="F2">
-        <v>2.496336851919637</v>
+        <v>2.096748210335988</v>
       </c>
       <c r="G2">
-        <v>2.755542404106677</v>
+        <v>1.657605119417553</v>
       </c>
       <c r="H2">
-        <v>1.403194130216917</v>
+        <v>1.332276378139909</v>
       </c>
       <c r="I2">
-        <v>1.914189584344072</v>
+        <v>1.299107241881885</v>
       </c>
       <c r="J2">
-        <v>0.02658361596225589</v>
+        <v>0.1070949409277731</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.795419461248457</v>
+        <v>1.591777731784489</v>
       </c>
       <c r="N2">
-        <v>3.529758333302084</v>
+        <v>1.662922876798859</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.00215201077373206</v>
+        <v>0.01132455048978476</v>
       </c>
       <c r="D3">
-        <v>0.08211443714090194</v>
+        <v>0.1098176463855651</v>
       </c>
       <c r="E3">
-        <v>0.04079241316139282</v>
+        <v>0.09552677440884594</v>
       </c>
       <c r="F3">
-        <v>2.189317502675777</v>
+        <v>2.046759814905371</v>
       </c>
       <c r="G3">
-        <v>2.386733714906057</v>
+        <v>1.586021052199413</v>
       </c>
       <c r="H3">
-        <v>1.238356733503878</v>
+        <v>1.306690657001013</v>
       </c>
       <c r="I3">
-        <v>1.665250049150757</v>
+        <v>1.252525169104359</v>
       </c>
       <c r="J3">
-        <v>0.02941219779776816</v>
+        <v>0.1090268536863483</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.297335929101735</v>
+        <v>1.446390440664544</v>
       </c>
       <c r="N3">
-        <v>3.156698733347781</v>
+        <v>1.541200146224611</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.002354370763079316</v>
+        <v>0.01143788550734015</v>
       </c>
       <c r="D4">
-        <v>0.07799728495213287</v>
+        <v>0.1085573265249309</v>
       </c>
       <c r="E4">
-        <v>0.04083227259089028</v>
+        <v>0.09580432564145092</v>
       </c>
       <c r="F4">
-        <v>2.00810945552773</v>
+        <v>2.017739411520111</v>
       </c>
       <c r="G4">
-        <v>2.167919271124902</v>
+        <v>1.54346023831701</v>
       </c>
       <c r="H4">
-        <v>1.1410874254627</v>
+        <v>1.29195954484041</v>
       </c>
       <c r="I4">
-        <v>1.517630917961938</v>
+        <v>1.224970147524274</v>
       </c>
       <c r="J4">
-        <v>0.03126533913120788</v>
+        <v>0.1102802625411172</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.993410059074549</v>
+        <v>1.357178730461627</v>
       </c>
       <c r="N4">
-        <v>2.928722914392438</v>
+        <v>1.466736462563745</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.002439369902849542</v>
+        <v>0.01148526417181095</v>
       </c>
       <c r="D5">
-        <v>0.07632786680230197</v>
+        <v>0.1080406870349222</v>
       </c>
       <c r="E5">
-        <v>0.04085517994462684</v>
+        <v>0.09592417369745121</v>
       </c>
       <c r="F5">
-        <v>1.935876252141725</v>
+        <v>2.006330286910213</v>
       </c>
       <c r="G5">
-        <v>2.080417777493437</v>
+        <v>1.526462172412948</v>
       </c>
       <c r="H5">
-        <v>1.102320938421911</v>
+        <v>1.28620077282423</v>
       </c>
       <c r="I5">
-        <v>1.458620729177127</v>
+        <v>1.21400167476952</v>
       </c>
       <c r="J5">
-        <v>0.03204853439525479</v>
+        <v>0.1108079189687441</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.869935030469435</v>
+        <v>1.320839995588926</v>
       </c>
       <c r="N5">
-        <v>2.836061916877668</v>
+        <v>1.436464336298684</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002453630403767781</v>
+        <v>0.01149320337312265</v>
       </c>
       <c r="D6">
-        <v>0.07605109450297931</v>
+        <v>0.1079547147461639</v>
       </c>
       <c r="E6">
-        <v>0.04085939092570001</v>
+        <v>0.09594448254688004</v>
       </c>
       <c r="F6">
-        <v>1.923973086529045</v>
+        <v>2.004460884946965</v>
       </c>
       <c r="G6">
-        <v>2.065982010367719</v>
+        <v>1.523660419617329</v>
       </c>
       <c r="H6">
-        <v>1.09593316735905</v>
+        <v>1.285259234413616</v>
       </c>
       <c r="I6">
-        <v>1.448886707697596</v>
+        <v>1.212196017529152</v>
       </c>
       <c r="J6">
-        <v>0.03218024153433241</v>
+        <v>0.1108965550499104</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.849452163251755</v>
+        <v>1.314806973632358</v>
       </c>
       <c r="N6">
-        <v>2.820689323618041</v>
+        <v>1.431442148087768</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.002355507130902046</v>
+        <v>0.01143851964269516</v>
       </c>
       <c r="D7">
-        <v>0.07797474003226057</v>
+        <v>0.108550371314351</v>
       </c>
       <c r="E7">
-        <v>0.04083255432806077</v>
+        <v>0.09580591460986554</v>
       </c>
       <c r="F7">
-        <v>2.007129054075975</v>
+        <v>2.017583860783034</v>
       </c>
       <c r="G7">
-        <v>2.166732760442102</v>
+        <v>1.543229601842143</v>
       </c>
       <c r="H7">
-        <v>1.14056122733507</v>
+        <v>1.291880893327061</v>
       </c>
       <c r="I7">
-        <v>1.516830658021775</v>
+        <v>1.224821172020555</v>
       </c>
       <c r="J7">
-        <v>0.03127578967375655</v>
+        <v>0.1102873103674664</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.991743428572576</v>
+        <v>1.356688587725927</v>
       </c>
       <c r="N7">
-        <v>2.927472319368007</v>
+        <v>1.46632790428248</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.001945438714096026</v>
+        <v>0.01120770051610143</v>
       </c>
       <c r="D8">
-        <v>0.08654374501530526</v>
+        <v>0.1111521574500216</v>
       </c>
       <c r="E8">
-        <v>0.04077218046696629</v>
+        <v>0.0952535689631322</v>
       </c>
       <c r="F8">
-        <v>2.388817267886793</v>
+        <v>2.079162798403829</v>
       </c>
       <c r="G8">
-        <v>2.626631612042587</v>
+        <v>1.632631411962052</v>
       </c>
       <c r="H8">
-        <v>1.345464090651546</v>
+        <v>1.323250201767564</v>
       </c>
       <c r="I8">
-        <v>1.827161809691134</v>
+        <v>1.282826851649176</v>
       </c>
       <c r="J8">
-        <v>0.02753398037011046</v>
+        <v>0.1077471052990866</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3.62322167520648</v>
+        <v>1.541637279139593</v>
       </c>
       <c r="N8">
-        <v>3.40088210546358</v>
+        <v>1.62089786779444</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.001242802256739783</v>
+        <v>0.01079296309869071</v>
       </c>
       <c r="D9">
-        <v>0.1038362645176178</v>
+        <v>0.116159749568709</v>
       </c>
       <c r="E9">
-        <v>0.04085005461909041</v>
+        <v>0.094380972967814</v>
       </c>
       <c r="F9">
-        <v>3.206866554373846</v>
+        <v>2.2133673725412</v>
       </c>
       <c r="G9">
-        <v>3.602094677624649</v>
+        <v>1.819197354715897</v>
       </c>
       <c r="H9">
-        <v>1.784708795296922</v>
+        <v>1.392617601391748</v>
       </c>
       <c r="I9">
-        <v>2.485949177410603</v>
+        <v>1.405012008416207</v>
       </c>
       <c r="J9">
-        <v>0.02118080082694895</v>
+        <v>0.1032997510086595</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.881909592062925</v>
+        <v>1.904724642456898</v>
       </c>
       <c r="N9">
-        <v>4.339502315500198</v>
+        <v>1.926056914493273</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.0008117238322289388</v>
+        <v>0.010511536349328</v>
       </c>
       <c r="D10">
-        <v>0.1170780734003571</v>
+        <v>0.1197830795509134</v>
       </c>
       <c r="E10">
-        <v>0.04101345889024799</v>
+        <v>0.09386648782318296</v>
       </c>
       <c r="F10">
-        <v>3.869139824812265</v>
+        <v>2.320425677567272</v>
       </c>
       <c r="G10">
-        <v>4.384795919655829</v>
+        <v>1.963425009782014</v>
       </c>
       <c r="H10">
-        <v>2.140247662905466</v>
+        <v>1.44849818184332</v>
       </c>
       <c r="I10">
-        <v>3.014758872643966</v>
+        <v>1.500119721073432</v>
       </c>
       <c r="J10">
-        <v>0.0172076432185122</v>
+        <v>0.1003587224672131</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.827855533048506</v>
+        <v>2.171698886115252</v>
       </c>
       <c r="N10">
-        <v>5.038057939286205</v>
+        <v>2.151356550238233</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0006409728922611713</v>
+        <v>0.0103886035004972</v>
       </c>
       <c r="D11">
-        <v>0.1232874433761495</v>
+        <v>0.1214197510868189</v>
       </c>
       <c r="E11">
-        <v>0.04110733230406716</v>
+        <v>0.09365955627412781</v>
       </c>
       <c r="F11">
-        <v>4.188872659023332</v>
+        <v>2.371023721356607</v>
       </c>
       <c r="G11">
-        <v>4.760993595706509</v>
+        <v>2.030658821529869</v>
       </c>
       <c r="H11">
-        <v>2.311857597856488</v>
+        <v>1.475016169076014</v>
       </c>
       <c r="I11">
-        <v>3.268933154284895</v>
+        <v>1.544589374823573</v>
       </c>
       <c r="J11">
-        <v>0.01557523764903124</v>
+        <v>0.09909185871675064</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>6.265228104832772</v>
+        <v>2.293194683101632</v>
       </c>
       <c r="N11">
-        <v>5.358495997444209</v>
+        <v>2.254060850396343</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0005807078892912099</v>
+        <v>0.01034278788222665</v>
       </c>
       <c r="D12">
-        <v>0.1256727571364138</v>
+        <v>0.1220378764832333</v>
       </c>
       <c r="E12">
-        <v>0.04114534291529459</v>
+        <v>0.0935850644097993</v>
       </c>
       <c r="F12">
-        <v>4.313126419920707</v>
+        <v>2.390461163480211</v>
       </c>
       <c r="G12">
-        <v>4.906937205257918</v>
+        <v>2.056357240924115</v>
       </c>
       <c r="H12">
-        <v>2.378541103286807</v>
+        <v>1.485217941091321</v>
       </c>
       <c r="I12">
-        <v>3.367535850229558</v>
+        <v>1.561605498555409</v>
       </c>
       <c r="J12">
-        <v>0.01498461911524274</v>
+        <v>0.09862236489226284</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>6.432113884050352</v>
+        <v>2.339207965529511</v>
       </c>
       <c r="N12">
-        <v>5.480286796699602</v>
+        <v>2.292980275854802</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.0005934777166793914</v>
+        <v>0.01035262227048017</v>
       </c>
       <c r="D13">
-        <v>0.1251573935120263</v>
+        <v>0.1219048250049894</v>
       </c>
       <c r="E13">
-        <v>0.04113705316079397</v>
+        <v>0.09360093598262154</v>
       </c>
       <c r="F13">
-        <v>4.286215439380584</v>
+        <v>2.386262570573194</v>
       </c>
       <c r="G13">
-        <v>4.8753400442626</v>
+        <v>2.050811942941891</v>
       </c>
       <c r="H13">
-        <v>2.364099075394165</v>
+        <v>1.483013656901619</v>
       </c>
       <c r="I13">
-        <v>3.346188299820184</v>
+        <v>1.557932873489477</v>
       </c>
       <c r="J13">
-        <v>0.01511055329995159</v>
+        <v>0.0987230229304572</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>6.396111445475867</v>
+        <v>2.329297961092607</v>
       </c>
       <c r="N13">
-        <v>5.454035916277746</v>
+        <v>2.284597108258311</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0006359218491700513</v>
+        <v>0.01038481943843861</v>
       </c>
       <c r="D14">
-        <v>0.1234829565558115</v>
+        <v>0.1214706375102992</v>
       </c>
       <c r="E14">
-        <v>0.0411104122615118</v>
+        <v>0.0936533504215884</v>
       </c>
       <c r="F14">
-        <v>4.199028060387576</v>
+        <v>2.372617273691816</v>
       </c>
       <c r="G14">
-        <v>4.772926839722402</v>
+        <v>2.032768238940207</v>
       </c>
       <c r="H14">
-        <v>2.317307866990518</v>
+        <v>1.475852256202245</v>
       </c>
       <c r="I14">
-        <v>3.27699559114447</v>
+        <v>1.545985747099849</v>
       </c>
       <c r="J14">
-        <v>0.01552608044113768</v>
+        <v>0.09905302779794312</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>6.278931011381644</v>
+        <v>2.296980122058102</v>
       </c>
       <c r="N14">
-        <v>5.368506418855816</v>
+        <v>2.257262241708361</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.000662517680368957</v>
+        <v>0.01040463716788453</v>
       </c>
       <c r="D15">
-        <v>0.1224619812699004</v>
+        <v>0.1212044713456422</v>
       </c>
       <c r="E15">
-        <v>0.04109440355169447</v>
+        <v>0.09368595870229512</v>
       </c>
       <c r="F15">
-        <v>4.146054287062327</v>
+        <v>2.364295346369602</v>
       </c>
       <c r="G15">
-        <v>4.710669078474041</v>
+        <v>2.021747147664996</v>
       </c>
       <c r="H15">
-        <v>2.288877252081193</v>
+        <v>1.471486590789993</v>
       </c>
       <c r="I15">
-        <v>3.234932358047161</v>
+        <v>1.538690859649009</v>
       </c>
       <c r="J15">
-        <v>0.01578426506666375</v>
+        <v>0.09925649965805228</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>6.207327156362311</v>
+        <v>2.277185182329532</v>
       </c>
       <c r="N15">
-        <v>5.316177542452579</v>
+        <v>2.240522336113429</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.000823453090400772</v>
+        <v>0.01051967309759028</v>
       </c>
       <c r="D16">
-        <v>0.1166765976612965</v>
+        <v>0.1196758876187474</v>
       </c>
       <c r="E16">
-        <v>0.04100768863786719</v>
+        <v>0.09388055426827258</v>
       </c>
       <c r="F16">
-        <v>3.848658632817688</v>
+        <v>2.317157510151475</v>
       </c>
       <c r="G16">
-        <v>4.360663815047928</v>
+        <v>1.959064217956438</v>
       </c>
       <c r="H16">
-        <v>2.129253925821928</v>
+        <v>1.446787438832388</v>
       </c>
       <c r="I16">
-        <v>2.998454093694491</v>
+        <v>1.497238038087502</v>
       </c>
       <c r="J16">
-        <v>0.01731804188009178</v>
+        <v>0.1004429464636125</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>5.799434317870578</v>
+        <v>2.163759690519441</v>
       </c>
       <c r="N16">
-        <v>5.01717548484902</v>
+        <v>2.144648613620348</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0009291554418261461</v>
+        <v>0.01059155063594397</v>
       </c>
       <c r="D17">
-        <v>0.1131796901245465</v>
+        <v>0.1187351951156259</v>
       </c>
       <c r="E17">
-        <v>0.04095926410905726</v>
+        <v>0.09400685475148229</v>
       </c>
       <c r="F17">
-        <v>3.671288189292511</v>
+        <v>2.288728811185678</v>
       </c>
       <c r="G17">
-        <v>4.151492917557306</v>
+        <v>1.921029669399587</v>
       </c>
       <c r="H17">
-        <v>2.034042077215219</v>
+        <v>1.431917954203215</v>
       </c>
       <c r="I17">
-        <v>2.857128802975282</v>
+        <v>1.472118880993008</v>
       </c>
       <c r="J17">
-        <v>0.01830537717141922</v>
+        <v>0.1011890031378542</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>5.551174662522072</v>
+        <v>2.094188057401453</v>
       </c>
       <c r="N17">
-        <v>4.834472737285466</v>
+        <v>2.085885733693772</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0009922848591679134</v>
+        <v>0.01063337147065857</v>
       </c>
       <c r="D18">
-        <v>0.111185315305768</v>
+        <v>0.1181930405501106</v>
       </c>
       <c r="E18">
-        <v>0.04093327418960158</v>
+        <v>0.09408205298637817</v>
       </c>
       <c r="F18">
-        <v>3.570970824299707</v>
+        <v>2.272555637536982</v>
       </c>
       <c r="G18">
-        <v>4.033038434327722</v>
+        <v>1.899305756041286</v>
       </c>
       <c r="H18">
-        <v>1.980188748646356</v>
+        <v>1.423468603308152</v>
       </c>
       <c r="I18">
-        <v>2.777096493831721</v>
+        <v>1.457784201588339</v>
       </c>
       <c r="J18">
-        <v>0.01888957918542999</v>
+        <v>0.101624798774246</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>5.409029242616072</v>
+        <v>2.054176882074927</v>
       </c>
       <c r="N18">
-        <v>4.729633087032596</v>
+        <v>2.052107249104324</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.001014039830224189</v>
+        <v>0.01064761338332021</v>
       </c>
       <c r="D19">
-        <v>0.110512769219909</v>
+        <v>0.1180092879466201</v>
       </c>
       <c r="E19">
-        <v>0.04092480417010691</v>
+        <v>0.09410795329627319</v>
       </c>
       <c r="F19">
-        <v>3.537282851678299</v>
+        <v>2.267110165064366</v>
       </c>
       <c r="G19">
-        <v>3.993234124242463</v>
+        <v>1.891976464921328</v>
       </c>
       <c r="H19">
-        <v>1.962103534282875</v>
+        <v>1.420625455311722</v>
       </c>
       <c r="I19">
-        <v>2.750203455269073</v>
+        <v>1.452950070250708</v>
       </c>
       <c r="J19">
-        <v>0.01909011450001863</v>
+        <v>0.101773498792376</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>5.361005560195508</v>
+        <v>2.04063061782324</v>
       </c>
       <c r="N19">
-        <v>4.694176613579373</v>
+        <v>2.040674034410131</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.000917656982601156</v>
+        <v>0.01058384956482628</v>
       </c>
       <c r="D20">
-        <v>0.1135501394934266</v>
+        <v>0.1188354464197374</v>
       </c>
       <c r="E20">
-        <v>0.04096422857655035</v>
+        <v>0.09399314578390694</v>
       </c>
       <c r="F20">
-        <v>3.689989990914086</v>
+        <v>2.291736614219815</v>
       </c>
       <c r="G20">
-        <v>4.173563589857736</v>
+        <v>1.925062688025662</v>
       </c>
       <c r="H20">
-        <v>2.044081498064344</v>
+        <v>1.43349014171153</v>
       </c>
       <c r="I20">
-        <v>2.872040677116573</v>
+        <v>1.474781119855919</v>
       </c>
       <c r="J20">
-        <v>0.01819856914922902</v>
+        <v>0.1011088922155139</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>5.577533722258977</v>
+        <v>2.1015936121577</v>
       </c>
       <c r="N20">
-        <v>4.853895838420499</v>
+        <v>2.092139058418127</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.0006233288471020337</v>
+        <v>0.01037534232742776</v>
       </c>
       <c r="D21">
-        <v>0.1239737916320678</v>
+        <v>0.1215982134170233</v>
       </c>
       <c r="E21">
-        <v>0.04111817350525904</v>
+        <v>0.09363785027479565</v>
       </c>
       <c r="F21">
-        <v>4.224546210878884</v>
+        <v>2.376617673991973</v>
       </c>
       <c r="G21">
-        <v>4.802908238543978</v>
+        <v>2.038061601580466</v>
       </c>
       <c r="H21">
-        <v>2.331003001670979</v>
+        <v>1.477951373894939</v>
       </c>
       <c r="I21">
-        <v>3.297251815514414</v>
+        <v>1.549490093660381</v>
       </c>
       <c r="J21">
-        <v>0.01540326212940535</v>
+        <v>0.09895581924327423</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>6.313313276089218</v>
+        <v>2.306472517649496</v>
       </c>
       <c r="N21">
-        <v>5.393615786897897</v>
+        <v>2.265290433204825</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0004570706364186439</v>
+        <v>0.01024336520469493</v>
       </c>
       <c r="D22">
-        <v>0.1309888246247297</v>
+        <v>0.1233942542034185</v>
       </c>
       <c r="E22">
-        <v>0.04123294327943761</v>
+        <v>0.09342817954737725</v>
       </c>
       <c r="F22">
-        <v>4.592749790763406</v>
+        <v>2.433709335764888</v>
       </c>
       <c r="G22">
-        <v>5.234896557490458</v>
+        <v>2.113305039855106</v>
       </c>
       <c r="H22">
-        <v>2.528592501495382</v>
+        <v>1.507942904560821</v>
       </c>
       <c r="I22">
-        <v>3.589102944362097</v>
+        <v>1.599346626302363</v>
       </c>
       <c r="J22">
-        <v>0.01373823104233018</v>
+        <v>0.09760836083523827</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>6.801697116993381</v>
+        <v>2.44040393404876</v>
       </c>
       <c r="N22">
-        <v>5.749001455767939</v>
+        <v>2.378613884945992</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0005431206062604943</v>
+        <v>0.01031340940808789</v>
       </c>
       <c r="D23">
-        <v>0.1272233874524744</v>
+        <v>0.1224365434024932</v>
       </c>
       <c r="E23">
-        <v>0.0411705206423747</v>
+        <v>0.09353803262724369</v>
       </c>
       <c r="F23">
-        <v>4.394309477632788</v>
+        <v>2.403089040415381</v>
       </c>
       <c r="G23">
-        <v>5.002219836306551</v>
+        <v>2.073017176584983</v>
       </c>
       <c r="H23">
-        <v>2.422107607936084</v>
+        <v>1.491849720508071</v>
       </c>
       <c r="I23">
-        <v>3.431909633246434</v>
+        <v>1.572641948923163</v>
       </c>
       <c r="J23">
-        <v>0.01461120585777387</v>
+        <v>0.0983220532944955</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>6.540255448983544</v>
+        <v>2.368919817386796</v>
       </c>
       <c r="N23">
-        <v>5.55905924581333</v>
+        <v>2.318117546315762</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0009228481405313405</v>
+        <v>0.01058732966964371</v>
       </c>
       <c r="D24">
-        <v>0.1133826098832742</v>
+        <v>0.1187901269741261</v>
       </c>
       <c r="E24">
-        <v>0.04096197835231408</v>
+        <v>0.09399933554988316</v>
       </c>
       <c r="F24">
-        <v>3.681529788809542</v>
+        <v>2.29037625459037</v>
       </c>
       <c r="G24">
-        <v>4.163579873257476</v>
+        <v>1.923238916335976</v>
       </c>
       <c r="H24">
-        <v>2.039539938954789</v>
+        <v>1.432779046560427</v>
       </c>
       <c r="I24">
-        <v>2.865295255411311</v>
+        <v>1.473577189689465</v>
       </c>
       <c r="J24">
-        <v>0.01824680562039482</v>
+        <v>0.1011450889429248</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>5.565614995432526</v>
+        <v>2.098245602844656</v>
       </c>
       <c r="N24">
-        <v>4.845114040631643</v>
+        <v>2.08931191424324</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.001419895197139365</v>
+        <v>0.01090108555619695</v>
       </c>
       <c r="D25">
-        <v>0.09908378732585277</v>
+        <v>0.1148149899444206</v>
       </c>
       <c r="E25">
-        <v>0.04080926259260487</v>
+        <v>0.09459467270800204</v>
       </c>
       <c r="F25">
-        <v>2.976338517452206</v>
+        <v>2.175595135691054</v>
       </c>
       <c r="G25">
-        <v>3.328332735430791</v>
+        <v>1.767491293152204</v>
       </c>
       <c r="H25">
-        <v>1.66093137856916</v>
+        <v>1.372998000595288</v>
       </c>
       <c r="I25">
-        <v>2.301016247463295</v>
+        <v>1.371034524048767</v>
       </c>
       <c r="J25">
-        <v>0.02278500306668896</v>
+        <v>0.1044456194858459</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>4.538399509980493</v>
+        <v>1.806460185957036</v>
       </c>
       <c r="N25">
-        <v>4.0842233329073</v>
+        <v>1.843299734266282</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_85/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01114771857106678</v>
+        <v>0.001840490115329441</v>
       </c>
       <c r="D2">
-        <v>0.111850647797489</v>
+        <v>0.08889115143232829</v>
       </c>
       <c r="E2">
-        <v>0.09511822491632671</v>
+        <v>0.04076954620568607</v>
       </c>
       <c r="F2">
-        <v>2.096748210335988</v>
+        <v>2.496336851919637</v>
       </c>
       <c r="G2">
-        <v>1.657605119417553</v>
+        <v>2.755542404106677</v>
       </c>
       <c r="H2">
-        <v>1.332276378139909</v>
+        <v>1.403194130216917</v>
       </c>
       <c r="I2">
-        <v>1.299107241881885</v>
+        <v>1.914189584344086</v>
       </c>
       <c r="J2">
-        <v>0.1070949409277731</v>
+        <v>0.02658361596234649</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.591777731784489</v>
+        <v>3.7954194612484</v>
       </c>
       <c r="N2">
-        <v>1.662922876798859</v>
+        <v>3.529758333302084</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01132455048978476</v>
+        <v>0.002152010773510904</v>
       </c>
       <c r="D3">
-        <v>0.1098176463855651</v>
+        <v>0.08211443714080247</v>
       </c>
       <c r="E3">
-        <v>0.09552677440884594</v>
+        <v>0.04079241316139637</v>
       </c>
       <c r="F3">
-        <v>2.046759814905371</v>
+        <v>2.18931750267582</v>
       </c>
       <c r="G3">
-        <v>1.586021052199413</v>
+        <v>2.386733714906029</v>
       </c>
       <c r="H3">
-        <v>1.306690657001013</v>
+        <v>1.238356733503906</v>
       </c>
       <c r="I3">
-        <v>1.252525169104359</v>
+        <v>1.665250049150757</v>
       </c>
       <c r="J3">
-        <v>0.1090268536863483</v>
+        <v>0.02941219779771842</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.446390440664544</v>
+        <v>3.297335929101735</v>
       </c>
       <c r="N3">
-        <v>1.541200146224611</v>
+        <v>3.156698733347753</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01143788550734015</v>
+        <v>0.002354370763074654</v>
       </c>
       <c r="D4">
-        <v>0.1085573265249309</v>
+        <v>0.07799728495211866</v>
       </c>
       <c r="E4">
-        <v>0.09580432564145092</v>
+        <v>0.04083227259086186</v>
       </c>
       <c r="F4">
-        <v>2.017739411520111</v>
+        <v>2.008109455527745</v>
       </c>
       <c r="G4">
-        <v>1.54346023831701</v>
+        <v>2.16791927112493</v>
       </c>
       <c r="H4">
-        <v>1.29195954484041</v>
+        <v>1.141087425462558</v>
       </c>
       <c r="I4">
-        <v>1.224970147524274</v>
+        <v>1.517630917961924</v>
       </c>
       <c r="J4">
-        <v>0.1102802625411172</v>
+        <v>0.03126533913119189</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.357178730461627</v>
+        <v>2.993410059074563</v>
       </c>
       <c r="N4">
-        <v>1.466736462563745</v>
+        <v>2.928722914392552</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01148526417181095</v>
+        <v>0.002439369902620503</v>
       </c>
       <c r="D5">
-        <v>0.1080406870349222</v>
+        <v>0.07632786680251513</v>
       </c>
       <c r="E5">
-        <v>0.09592417369745121</v>
+        <v>0.04085517994458776</v>
       </c>
       <c r="F5">
-        <v>2.006330286910213</v>
+        <v>1.935876252141725</v>
       </c>
       <c r="G5">
-        <v>1.526462172412948</v>
+        <v>2.080417777493352</v>
       </c>
       <c r="H5">
-        <v>1.28620077282423</v>
+        <v>1.102320938421911</v>
       </c>
       <c r="I5">
-        <v>1.21400167476952</v>
+        <v>1.458620729177142</v>
       </c>
       <c r="J5">
-        <v>0.1108079189687441</v>
+        <v>0.03204853439524946</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>1.320839995588926</v>
+        <v>2.869935030469435</v>
       </c>
       <c r="N5">
-        <v>1.436464336298684</v>
+        <v>2.836061916877668</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01149320337312265</v>
+        <v>0.00245363040399238</v>
       </c>
       <c r="D6">
-        <v>0.1079547147461639</v>
+        <v>0.0760510945029651</v>
       </c>
       <c r="E6">
-        <v>0.09594448254688004</v>
+        <v>0.04085939092569824</v>
       </c>
       <c r="F6">
-        <v>2.004460884946965</v>
+        <v>1.923973086529074</v>
       </c>
       <c r="G6">
-        <v>1.523660419617329</v>
+        <v>2.065982010367691</v>
       </c>
       <c r="H6">
-        <v>1.285259234413616</v>
+        <v>1.095933167358936</v>
       </c>
       <c r="I6">
-        <v>1.212196017529152</v>
+        <v>1.448886707697611</v>
       </c>
       <c r="J6">
-        <v>0.1108965550499104</v>
+        <v>0.03218024153432708</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.314806973632358</v>
+        <v>2.849452163251811</v>
       </c>
       <c r="N6">
-        <v>1.431442148087768</v>
+        <v>2.820689323618183</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01143851964269516</v>
+        <v>0.002355507130660572</v>
       </c>
       <c r="D7">
-        <v>0.108550371314351</v>
+        <v>0.07797474003204741</v>
       </c>
       <c r="E7">
-        <v>0.09580591460986554</v>
+        <v>0.04083255432806254</v>
       </c>
       <c r="F7">
-        <v>2.017583860783034</v>
+        <v>2.007129054075961</v>
       </c>
       <c r="G7">
-        <v>1.543229601842143</v>
+        <v>2.16673276044213</v>
       </c>
       <c r="H7">
-        <v>1.291880893327061</v>
+        <v>1.140561227335098</v>
       </c>
       <c r="I7">
-        <v>1.224821172020555</v>
+        <v>1.51683065802176</v>
       </c>
       <c r="J7">
-        <v>0.1102873103674664</v>
+        <v>0.03127578967375833</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.356688587725927</v>
+        <v>2.991743428572562</v>
       </c>
       <c r="N7">
-        <v>1.46632790428248</v>
+        <v>2.927472319368093</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01120770051610143</v>
+        <v>0.001945438714099246</v>
       </c>
       <c r="D8">
-        <v>0.1111521574500216</v>
+        <v>0.08654374501542605</v>
       </c>
       <c r="E8">
-        <v>0.0952535689631322</v>
+        <v>0.04077218046696807</v>
       </c>
       <c r="F8">
-        <v>2.079162798403829</v>
+        <v>2.388817267886793</v>
       </c>
       <c r="G8">
-        <v>1.632631411962052</v>
+        <v>2.626631612042587</v>
       </c>
       <c r="H8">
-        <v>1.323250201767564</v>
+        <v>1.345464090651518</v>
       </c>
       <c r="I8">
-        <v>1.282826851649176</v>
+        <v>1.827161809691148</v>
       </c>
       <c r="J8">
-        <v>0.1077471052990866</v>
+        <v>0.02753398037017263</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.541637279139593</v>
+        <v>3.62322167520648</v>
       </c>
       <c r="N8">
-        <v>1.62089786779444</v>
+        <v>3.400882105463609</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01079296309869071</v>
+        <v>0.001242802256732789</v>
       </c>
       <c r="D9">
-        <v>0.116159749568709</v>
+        <v>0.1038362645175184</v>
       </c>
       <c r="E9">
-        <v>0.094380972967814</v>
+        <v>0.04085005461905311</v>
       </c>
       <c r="F9">
-        <v>2.2133673725412</v>
+        <v>3.206866554373875</v>
       </c>
       <c r="G9">
-        <v>1.819197354715897</v>
+        <v>3.602094677624621</v>
       </c>
       <c r="H9">
-        <v>1.392617601391748</v>
+        <v>1.784708795296979</v>
       </c>
       <c r="I9">
-        <v>1.405012008416207</v>
+        <v>2.485949177410617</v>
       </c>
       <c r="J9">
-        <v>0.1032997510086595</v>
+        <v>0.02118080082705021</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.904724642456898</v>
+        <v>4.881909592062925</v>
       </c>
       <c r="N9">
-        <v>1.926056914493273</v>
+        <v>4.33950231550017</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.010511536349328</v>
+        <v>0.000811723832229605</v>
       </c>
       <c r="D10">
-        <v>0.1197830795509134</v>
+        <v>0.1170780734001085</v>
       </c>
       <c r="E10">
-        <v>0.09386648782318296</v>
+        <v>0.04101345889025865</v>
       </c>
       <c r="F10">
-        <v>2.320425677567272</v>
+        <v>3.869139824812265</v>
       </c>
       <c r="G10">
-        <v>1.963425009782014</v>
+        <v>4.384795919655886</v>
       </c>
       <c r="H10">
-        <v>1.44849818184332</v>
+        <v>2.140247662905438</v>
       </c>
       <c r="I10">
-        <v>1.500119721073432</v>
+        <v>3.014758872643966</v>
       </c>
       <c r="J10">
-        <v>0.1003587224672131</v>
+        <v>0.0172076432185726</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.171698886115252</v>
+        <v>5.827855533048506</v>
       </c>
       <c r="N10">
-        <v>2.151356550238233</v>
+        <v>5.038057939286205</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.0103886035004972</v>
+        <v>0.0006409728924692271</v>
       </c>
       <c r="D11">
-        <v>0.1214197510868189</v>
+        <v>0.1232874433759221</v>
       </c>
       <c r="E11">
-        <v>0.09365955627412781</v>
+        <v>0.04110733230409735</v>
       </c>
       <c r="F11">
-        <v>2.371023721356607</v>
+        <v>4.18887265902336</v>
       </c>
       <c r="G11">
-        <v>2.030658821529869</v>
+        <v>4.760993595706509</v>
       </c>
       <c r="H11">
-        <v>1.475016169076014</v>
+        <v>2.311857597856488</v>
       </c>
       <c r="I11">
-        <v>1.544589374823573</v>
+        <v>3.268933154284909</v>
       </c>
       <c r="J11">
-        <v>0.09909185871675064</v>
+        <v>0.01557523764906499</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.293194683101632</v>
+        <v>6.265228104832829</v>
       </c>
       <c r="N11">
-        <v>2.254060850396343</v>
+        <v>5.358495997444322</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01034278788222665</v>
+        <v>0.0005807078893653728</v>
       </c>
       <c r="D12">
-        <v>0.1220378764832333</v>
+        <v>0.1256727571362006</v>
       </c>
       <c r="E12">
-        <v>0.0935850644097993</v>
+        <v>0.04114534291529282</v>
       </c>
       <c r="F12">
-        <v>2.390461163480211</v>
+        <v>4.313126419920735</v>
       </c>
       <c r="G12">
-        <v>2.056357240924115</v>
+        <v>4.906937205257861</v>
       </c>
       <c r="H12">
-        <v>1.485217941091321</v>
+        <v>2.378541103286693</v>
       </c>
       <c r="I12">
-        <v>1.561605498555409</v>
+        <v>3.367535850229558</v>
       </c>
       <c r="J12">
-        <v>0.09862236489226284</v>
+        <v>0.01498461911523918</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.339207965529511</v>
+        <v>6.432113884050409</v>
       </c>
       <c r="N12">
-        <v>2.292980275854802</v>
+        <v>5.480286796699602</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01035262227048017</v>
+        <v>0.0005934777166720639</v>
       </c>
       <c r="D13">
-        <v>0.1219048250049894</v>
+        <v>0.1251573935120192</v>
       </c>
       <c r="E13">
-        <v>0.09360093598262154</v>
+        <v>0.04113705316079752</v>
       </c>
       <c r="F13">
-        <v>2.386262570573194</v>
+        <v>4.286215439380555</v>
       </c>
       <c r="G13">
-        <v>2.050811942941891</v>
+        <v>4.8753400442626</v>
       </c>
       <c r="H13">
-        <v>1.483013656901619</v>
+        <v>2.364099075394165</v>
       </c>
       <c r="I13">
-        <v>1.557932873489477</v>
+        <v>3.346188299820156</v>
       </c>
       <c r="J13">
-        <v>0.0987230229304572</v>
+        <v>0.01511055329998179</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.329297961092607</v>
+        <v>6.396111445475867</v>
       </c>
       <c r="N13">
-        <v>2.284597108258311</v>
+        <v>5.454035916277746</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01038481943843861</v>
+        <v>0.0006359218486686746</v>
       </c>
       <c r="D14">
-        <v>0.1214706375102992</v>
+        <v>0.1234829565559608</v>
       </c>
       <c r="E14">
-        <v>0.0936533504215884</v>
+        <v>0.04111041226151002</v>
       </c>
       <c r="F14">
-        <v>2.372617273691816</v>
+        <v>4.199028060387576</v>
       </c>
       <c r="G14">
-        <v>2.032768238940207</v>
+        <v>4.772926839722345</v>
       </c>
       <c r="H14">
-        <v>1.475852256202245</v>
+        <v>2.317307866990518</v>
       </c>
       <c r="I14">
-        <v>1.545985747099849</v>
+        <v>3.276995591144455</v>
       </c>
       <c r="J14">
-        <v>0.09905302779794312</v>
+        <v>0.01552608044100801</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.296980122058102</v>
+        <v>6.278931011381644</v>
       </c>
       <c r="N14">
-        <v>2.257262241708361</v>
+        <v>5.368506418855816</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01040463716788453</v>
+        <v>0.0006625176805854505</v>
       </c>
       <c r="D15">
-        <v>0.1212044713456422</v>
+        <v>0.1224619812699146</v>
       </c>
       <c r="E15">
-        <v>0.09368595870229512</v>
+        <v>0.04109440355171401</v>
       </c>
       <c r="F15">
-        <v>2.364295346369602</v>
+        <v>4.146054287062327</v>
       </c>
       <c r="G15">
-        <v>2.021747147664996</v>
+        <v>4.710669078473927</v>
       </c>
       <c r="H15">
-        <v>1.471486590789993</v>
+        <v>2.288877252081249</v>
       </c>
       <c r="I15">
-        <v>1.538690859649009</v>
+        <v>3.234932358047161</v>
       </c>
       <c r="J15">
-        <v>0.09925649965805228</v>
+        <v>0.01578426506667263</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.277185182329532</v>
+        <v>6.207327156362282</v>
       </c>
       <c r="N15">
-        <v>2.240522336113429</v>
+        <v>5.316177542452579</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01051967309759028</v>
+        <v>0.000823453090401105</v>
       </c>
       <c r="D16">
-        <v>0.1196758876187474</v>
+        <v>0.1166765976615238</v>
       </c>
       <c r="E16">
-        <v>0.09388055426827258</v>
+        <v>0.04100768863786719</v>
       </c>
       <c r="F16">
-        <v>2.317157510151475</v>
+        <v>3.848658632817717</v>
       </c>
       <c r="G16">
-        <v>1.959064217956438</v>
+        <v>4.360663815047957</v>
       </c>
       <c r="H16">
-        <v>1.446787438832388</v>
+        <v>2.129253925822042</v>
       </c>
       <c r="I16">
-        <v>1.497238038087502</v>
+        <v>2.998454093694477</v>
       </c>
       <c r="J16">
-        <v>0.1004429464636125</v>
+        <v>0.01731804188009711</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.163759690519441</v>
+        <v>5.799434317870606</v>
       </c>
       <c r="N16">
-        <v>2.144648613620348</v>
+        <v>5.01717548484919</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01059155063594397</v>
+        <v>0.0009291554416080983</v>
       </c>
       <c r="D17">
-        <v>0.1187351951156259</v>
+        <v>0.1131796901246744</v>
       </c>
       <c r="E17">
-        <v>0.09400685475148229</v>
+        <v>0.04095926410908568</v>
       </c>
       <c r="F17">
-        <v>2.288728811185678</v>
+        <v>3.67128818929254</v>
       </c>
       <c r="G17">
-        <v>1.921029669399587</v>
+        <v>4.151492917557391</v>
       </c>
       <c r="H17">
-        <v>1.431917954203215</v>
+        <v>2.034042077215361</v>
       </c>
       <c r="I17">
-        <v>1.472118880993008</v>
+        <v>2.857128802975311</v>
       </c>
       <c r="J17">
-        <v>0.1011890031378542</v>
+        <v>0.01830537717149205</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2.094188057401453</v>
+        <v>5.551174662522044</v>
       </c>
       <c r="N17">
-        <v>2.085885733693772</v>
+        <v>4.834472737285353</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01063337147065857</v>
+        <v>0.0009922848589486444</v>
       </c>
       <c r="D18">
-        <v>0.1181930405501106</v>
+        <v>0.111185315305768</v>
       </c>
       <c r="E18">
-        <v>0.09408205298637817</v>
+        <v>0.04093327418962645</v>
       </c>
       <c r="F18">
-        <v>2.272555637536982</v>
+        <v>3.570970824299678</v>
       </c>
       <c r="G18">
-        <v>1.899305756041286</v>
+        <v>4.033038434327665</v>
       </c>
       <c r="H18">
-        <v>1.423468603308152</v>
+        <v>1.980188748646384</v>
       </c>
       <c r="I18">
-        <v>1.457784201588339</v>
+        <v>2.777096493831735</v>
       </c>
       <c r="J18">
-        <v>0.101624798774246</v>
+        <v>0.01888957918536249</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2.054176882074927</v>
+        <v>5.409029242616157</v>
       </c>
       <c r="N18">
-        <v>2.052107249104324</v>
+        <v>4.729633087032482</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01064761338332021</v>
+        <v>0.001014039830214863</v>
       </c>
       <c r="D19">
-        <v>0.1180092879466201</v>
+        <v>0.1105127692197669</v>
       </c>
       <c r="E19">
-        <v>0.09410795329627319</v>
+        <v>0.04092480417007494</v>
       </c>
       <c r="F19">
-        <v>2.267110165064366</v>
+        <v>3.537282851678299</v>
       </c>
       <c r="G19">
-        <v>1.891976464921328</v>
+        <v>3.993234124242434</v>
       </c>
       <c r="H19">
-        <v>1.420625455311722</v>
+        <v>1.962103534282903</v>
       </c>
       <c r="I19">
-        <v>1.452950070250708</v>
+        <v>2.750203455269101</v>
       </c>
       <c r="J19">
-        <v>0.101773498792376</v>
+        <v>0.01909011450000264</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2.04063061782324</v>
+        <v>5.361005560195537</v>
       </c>
       <c r="N19">
-        <v>2.040674034410131</v>
+        <v>4.694176613579316</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01058384956482628</v>
+        <v>0.0009176569830827708</v>
       </c>
       <c r="D20">
-        <v>0.1188354464197374</v>
+        <v>0.1135501394935403</v>
       </c>
       <c r="E20">
-        <v>0.09399314578390694</v>
+        <v>0.04096422857657522</v>
       </c>
       <c r="F20">
-        <v>2.291736614219815</v>
+        <v>3.689989990914114</v>
       </c>
       <c r="G20">
-        <v>1.925062688025662</v>
+        <v>4.173563589857565</v>
       </c>
       <c r="H20">
-        <v>1.43349014171153</v>
+        <v>2.04408149806423</v>
       </c>
       <c r="I20">
-        <v>1.474781119855919</v>
+        <v>2.872040677116601</v>
       </c>
       <c r="J20">
-        <v>0.1011088922155139</v>
+        <v>0.01819856914926454</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2.1015936121577</v>
+        <v>5.577533722258977</v>
       </c>
       <c r="N20">
-        <v>2.092139058418127</v>
+        <v>4.853895838420499</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01037534232742776</v>
+        <v>0.0006233288471044762</v>
       </c>
       <c r="D21">
-        <v>0.1215982134170233</v>
+        <v>0.1239737916319328</v>
       </c>
       <c r="E21">
-        <v>0.09363785027479565</v>
+        <v>0.0411181735052395</v>
       </c>
       <c r="F21">
-        <v>2.376617673991973</v>
+        <v>4.224546210878913</v>
       </c>
       <c r="G21">
-        <v>2.038061601580466</v>
+        <v>4.802908238543864</v>
       </c>
       <c r="H21">
-        <v>1.477951373894939</v>
+        <v>2.331003001670922</v>
       </c>
       <c r="I21">
-        <v>1.549490093660381</v>
+        <v>3.297251815514457</v>
       </c>
       <c r="J21">
-        <v>0.09895581924327423</v>
+        <v>0.01540326212935561</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.306472517649496</v>
+        <v>6.313313276089161</v>
       </c>
       <c r="N21">
-        <v>2.265290433204825</v>
+        <v>5.393615786897897</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01024336520469493</v>
+        <v>0.0004570706362192478</v>
       </c>
       <c r="D22">
-        <v>0.1233942542034185</v>
+        <v>0.1309888246243958</v>
       </c>
       <c r="E22">
-        <v>0.09342817954737725</v>
+        <v>0.04123294327947846</v>
       </c>
       <c r="F22">
-        <v>2.433709335764888</v>
+        <v>4.592749790763349</v>
       </c>
       <c r="G22">
-        <v>2.113305039855106</v>
+        <v>5.234896557490515</v>
       </c>
       <c r="H22">
-        <v>1.507942904560821</v>
+        <v>2.528592501495496</v>
       </c>
       <c r="I22">
-        <v>1.599346626302363</v>
+        <v>3.589102944362054</v>
       </c>
       <c r="J22">
-        <v>0.09760836083523827</v>
+        <v>0.01373823104231064</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.44040393404876</v>
+        <v>6.801697116993353</v>
       </c>
       <c r="N22">
-        <v>2.378613884945992</v>
+        <v>5.749001455767882</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01031340940808789</v>
+        <v>0.0005431206062618266</v>
       </c>
       <c r="D23">
-        <v>0.1224365434024932</v>
+        <v>0.1272233874522684</v>
       </c>
       <c r="E23">
-        <v>0.09353803262724369</v>
+        <v>0.04117052064237292</v>
       </c>
       <c r="F23">
-        <v>2.403089040415381</v>
+        <v>4.394309477632788</v>
       </c>
       <c r="G23">
-        <v>2.073017176584983</v>
+        <v>5.002219836306494</v>
       </c>
       <c r="H23">
-        <v>1.491849720508071</v>
+        <v>2.42210760793597</v>
       </c>
       <c r="I23">
-        <v>1.572641948923163</v>
+        <v>3.431909633246434</v>
       </c>
       <c r="J23">
-        <v>0.0983220532944955</v>
+        <v>0.01461120585765308</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.368919817386796</v>
+        <v>6.540255448983515</v>
       </c>
       <c r="N23">
-        <v>2.318117546315762</v>
+        <v>5.559059245813387</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01058732966964371</v>
+        <v>0.0009228481405298972</v>
       </c>
       <c r="D24">
-        <v>0.1187901269741261</v>
+        <v>0.1133826098832742</v>
       </c>
       <c r="E24">
-        <v>0.09399933554988316</v>
+        <v>0.0409619783522519</v>
       </c>
       <c r="F24">
-        <v>2.29037625459037</v>
+        <v>3.681529788809513</v>
       </c>
       <c r="G24">
-        <v>1.923238916335976</v>
+        <v>4.163579873257589</v>
       </c>
       <c r="H24">
-        <v>1.432779046560427</v>
+        <v>2.039539938954647</v>
       </c>
       <c r="I24">
-        <v>1.473577189689465</v>
+        <v>2.865295255411297</v>
       </c>
       <c r="J24">
-        <v>0.1011450889429248</v>
+        <v>0.01824680562045877</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2.098245602844656</v>
+        <v>5.565614995432554</v>
       </c>
       <c r="N24">
-        <v>2.08931191424324</v>
+        <v>4.845114040631643</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01090108555619695</v>
+        <v>0.001419895196915322</v>
       </c>
       <c r="D25">
-        <v>0.1148149899444206</v>
+        <v>0.09908378732596645</v>
       </c>
       <c r="E25">
-        <v>0.09459467270800204</v>
+        <v>0.04080926259257289</v>
       </c>
       <c r="F25">
-        <v>2.175595135691054</v>
+        <v>2.976338517452206</v>
       </c>
       <c r="G25">
-        <v>1.767491293152204</v>
+        <v>3.328332735430791</v>
       </c>
       <c r="H25">
-        <v>1.372998000595288</v>
+        <v>1.66093137856916</v>
       </c>
       <c r="I25">
-        <v>1.371034524048767</v>
+        <v>2.301016247463338</v>
       </c>
       <c r="J25">
-        <v>0.1044456194858459</v>
+        <v>0.02278500306679021</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.806460185957036</v>
+        <v>4.538399509980508</v>
       </c>
       <c r="N25">
-        <v>1.843299734266282</v>
+        <v>4.084223332907442</v>
       </c>
       <c r="O25">
         <v>0</v>
